--- a/Code/Results/Cases/Case_13_1/lines_states.xlsx
+++ b/Code/Results/Cases/Case_13_1/lines_states.xlsx
@@ -703,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
